--- a/data/Datos_congreso_AEET.xlsx
+++ b/data/Datos_congreso_AEET.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Nextcloud/alcontar/veg_alcontar/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E4294-B6B0-C341-A50F-34F262AF92E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F9164-47FF-564D-AFDC-D2C2F95CFF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="1160" windowWidth="23040" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$337:$K$337</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="L378" sqref="L378"/>
+    <sheetView tabSelected="1" topLeftCell="C324" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="K336" sqref="K336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12516,7 +12519,7 @@
         <v>235.49999999999997</v>
       </c>
       <c r="K335" s="3">
-        <v>8.4699999999999989</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="336" spans="1:11" ht="16" x14ac:dyDescent="0.2">
